--- a/Motets Ordered by Average.xlsx
+++ b/Motets Ordered by Average.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,6 +361,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Composer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Total Average Score</t>
         </is>
       </c>
@@ -368,151 +373,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>O canenda vulgo per computa; Rex quem metrorum depingit prima figura; Rex regum</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>Altissonis aptatis; Hin principes; Tonans</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Annonymous</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lux purpurata radiis; Diligite iustitiam</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+          <t>Febus mundo oriens; Lanista vipereus; Cornibus equivocis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Annonymous</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vos quid admiramini; Gratissima virginis species; Gaude, gloriosa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1025641025641025</v>
+          <t>Lux purpurata radiis; Diligite iustitiam</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jacopo da Bologna</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Petre Clemens tam re quam nomine; Lugentium siccentur occuli</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1214574898785425</v>
+          <t>Tuba sacre fidei; In arboris; Virgo sum</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03846153846153844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Impudenter circumivi; Virtutibus laudabilis; Alma redemptoris</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1428571428571429</v>
+          <t>Floret cum vana gloria; Florens vigor; Neuma quinti toni</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Febus mundo oriens; Lanista vipereus; Cornibus equivocis</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1904761904761905</v>
+          <t>Rex Karole Johannis genite; Leticie pacis concordie; Virgo prius ac posterius</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe Royllart</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09022556390977443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Floret cum vana gloria; Florens vigor; Neuma quinti toni</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2</v>
+          <t>Impudenter circumivi; Virtutibus laudabilis; Alma redemptoris</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1203703703703703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Inter densas deserti meditans ; Imbribus irriguis; Admirabilem est</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.3684210526315789</v>
+          <t>Firmissime fidem; Adesto, sancta trinitas; Alleluya, Benedictus</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tuba sacre fidei; In arboris; Virgo sum</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5555555555555556</v>
+          <t>O canenda vulgo per computa; Rex quem metrorum depingit prima figura; Rex regum</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Orbis orbatus; Vos pastores adulteri; Fur non venit</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6</v>
+          <t>Garrit Gallus flendo dolorose ; In nova fert animum mutatas dicere formas; Neuma</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Altissonis aptatis; Hin principes; Tonans</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6666666666666667</v>
+          <t>Petre Clemens tam re quam nomine; Lugentium siccentur occuli</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.356979405034325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tribum que non abhorruit ; Quoniam secta latronum; Merito hec patimur</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7333333333333334</v>
+          <t>Orbis orbatus; Vos pastores adulteri; Fur non venit</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Garrit Gallus flendo dolorose ; In nova fert animum mutatas dicere formas; Neuma</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7692307692307692</v>
+          <t>Vos quid admiramini; Gratissima virginis species; Gaude, gloriosa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rex Karole Johannis genite; Leticie pacis concordie; Virgo prius ac posterius</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9166666666666666</v>
+          <t>Inter densas deserti meditans ; Imbribus irriguis; Admirabilem est</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Annonymous</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Firmissime fidem; Adesto, sancta trinitas; Alleluya, Benedictus</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+          <t>Tribum que non abhorruit ; Quoniam secta latronum; Merito hec patimur</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Philippe de Vitry</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9333333333333333</v>
       </c>
     </row>
   </sheetData>
